--- a/synuclein_inclusion_biogenesis_2024/image_analysis/linoleic_acid/72325_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/linoleic_acid/72325_SUMMARY.xlsx
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1032</v>
+        <v>1110</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -656,16 +656,16 @@
         <v>23879</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         <v>14961</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>33141</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>540</v>
+        <v>448</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>273.5</v>
+        <v>333</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>513.5</v>
+        <v>574</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>834.6666666666666</v>
+        <v>881.3333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>281.6666666666667</v>
+        <v>325</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1944,16 +1944,16 @@
         <v>12423</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>415</v>
+        <v>522</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>575</v>
+        <v>636</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>575</v>
+        <v>636</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>762</v>
+        <v>825</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2864,16 +2864,16 @@
         <v>15002</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>432</v>
+        <v>244</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2910,16 +2910,16 @@
         <v>11983</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>174.5</v>
+        <v>159.3333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>427.5</v>
+        <v>524.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>25618</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>784.6666666666666</v>
+        <v>660.5</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>845</v>
+        <v>944</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4152,16 +4152,16 @@
         <v>15745</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4244,22 +4244,22 @@
         <v>30981</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>739.5</v>
+        <v>530</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>3</v>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1392</v>
+        <v>1513</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>461.5</v>
+        <v>581.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4796,16 +4796,16 @@
         <v>15442</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>627.5</v>
+        <v>620</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>654.5</v>
+        <v>721.5</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
@@ -5026,16 +5026,16 @@
         <v>11534</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>615</v>
+        <v>301</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -5164,16 +5164,16 @@
         <v>15155</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>499</v>
+        <v>602</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -5348,16 +5348,16 @@
         <v>14233</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>266</v>
+        <v>224.5</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -5369,10 +5369,10 @@
         <v>3</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1022</v>
+        <v>1136</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -6084,22 +6084,22 @@
         <v>11943</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>857</v>
+        <v>507.5</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1047</v>
+        <v>1189</v>
       </c>
       <c r="H131" t="n">
         <v>4</v>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>86</v>
+        <v>162.5</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>658</v>
+        <v>787</v>
       </c>
       <c r="H141" t="n">
         <v>2</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>787</v>
+        <v>993</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>1313</v>
+        <v>1542</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>787</v>
+        <v>993</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>861.5</v>
+        <v>1089</v>
       </c>
       <c r="H168" t="n">
         <v>2</v>
@@ -8200,22 +8200,22 @@
         <v>16428</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1118</v>
+        <v>761.5</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J169" t="n">
         <v>8</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>963</v>
+        <v>1235</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -8430,16 +8430,16 @@
         <v>2928</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>492.5</v>
+        <v>585</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
@@ -8936,16 +8936,16 @@
         <v>40401</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E185" t="n">
         <v>3</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G185" t="n">
-        <v>445</v>
+        <v>323.8333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>4</v>
@@ -8982,16 +8982,16 @@
         <v>15852</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>173</v>
+        <v>171.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -9166,16 +9166,16 @@
         <v>23585</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
-        <v>823</v>
+        <v>407</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -9221,13 +9221,13 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>199.3333333333333</v>
+        <v>298.3333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J191" t="n">
         <v>10</v>
@@ -9258,16 +9258,16 @@
         <v>20505</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>44</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>174</v>
+        <v>243.5</v>
       </c>
       <c r="H197" t="n">
         <v>2</v>
@@ -9534,16 +9534,16 @@
         <v>20154</v>
       </c>
       <c r="D198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E198" t="n">
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G198" t="n">
-        <v>182.3333333333333</v>
+        <v>154.4</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
@@ -9681,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -9764,16 +9764,16 @@
         <v>27833</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" t="n">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -9994,16 +9994,16 @@
         <v>4006</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -10086,16 +10086,16 @@
         <v>21626</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G210" t="n">
-        <v>797</v>
+        <v>439</v>
       </c>
       <c r="H210" t="n">
         <v>2</v>
@@ -10224,16 +10224,16 @@
         <v>20301</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -10316,16 +10316,16 @@
         <v>30846</v>
       </c>
       <c r="D215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G215" t="n">
-        <v>183.3333333333333</v>
+        <v>252</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -10408,16 +10408,16 @@
         <v>23897</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -10454,22 +10454,22 @@
         <v>12087</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J218" t="n">
         <v>3</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
@@ -10638,16 +10638,16 @@
         <v>23314</v>
       </c>
       <c r="D222" t="n">
+        <v>7</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
         <v>5</v>
       </c>
-      <c r="E222" t="n">
-        <v>2</v>
-      </c>
-      <c r="F222" t="n">
-        <v>3</v>
-      </c>
       <c r="G222" t="n">
-        <v>348.2</v>
+        <v>352.1428571428572</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
@@ -10684,16 +10684,16 @@
         <v>26379</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>46</v>
+        <v>104.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -10730,16 +10730,16 @@
         <v>17003</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G224" t="n">
-        <v>351</v>
+        <v>404.3333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -10868,16 +10868,16 @@
         <v>24316</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>470</v>
+        <v>599</v>
       </c>
       <c r="H228" t="n">
         <v>1</v>
@@ -11006,16 +11006,16 @@
         <v>18624</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -11052,16 +11052,16 @@
         <v>23556</v>
       </c>
       <c r="D231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G231" t="n">
-        <v>73</v>
+        <v>120.25</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -11282,16 +11282,16 @@
         <v>38644</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -11328,16 +11328,16 @@
         <v>16278</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G237" t="n">
-        <v>847</v>
+        <v>399.3333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>1</v>
@@ -11374,16 +11374,16 @@
         <v>10881</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -11420,16 +11420,16 @@
         <v>21235</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239" t="n">
-        <v>498</v>
+        <v>333.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -11466,22 +11466,22 @@
         <v>26605</v>
       </c>
       <c r="D240" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J240" t="n">
         <v>8</v>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>935</v>
+        <v>1153</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -11972,16 +11972,16 @@
         <v>32440</v>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>296</v>
+        <v>285.3333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -11993,10 +11993,10 @@
         <v>1</v>
       </c>
       <c r="K251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M251" t="n">
         <v>4</v>
@@ -12018,16 +12018,16 @@
         <v>23527</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -12064,16 +12064,16 @@
         <v>24206</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>775</v>
+        <v>501</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -12085,10 +12085,10 @@
         <v>5</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M253" t="n">
         <v>1</v>
@@ -12110,16 +12110,16 @@
         <v>14284</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>938</v>
+        <v>657.5</v>
       </c>
       <c r="H254" t="n">
         <v>2</v>
@@ -12131,10 +12131,10 @@
         <v>3</v>
       </c>
       <c r="K254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M254" t="n">
         <v>2</v>
@@ -12349,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>336</v>
+        <v>463</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -12386,22 +12386,22 @@
         <v>18690</v>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E260" t="n">
         <v>2</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>277</v>
+        <v>302.6666666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J260" t="n">
         <v>6</v>
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -12616,16 +12616,16 @@
         <v>9679</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>23184</v>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E266" t="n">
         <v>2</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G266" t="n">
-        <v>807.6666666666666</v>
+        <v>725</v>
       </c>
       <c r="H266" t="n">
         <v>2</v>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -12754,16 +12754,16 @@
         <v>9536</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -12984,16 +12984,16 @@
         <v>3028</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1200</v>
+        <v>1321</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="H275" t="n">
         <v>1</v>
@@ -13168,16 +13168,16 @@
         <v>22378</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -13214,16 +13214,16 @@
         <v>24574</v>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
         <v>3</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>578.3333333333334</v>
+        <v>497.5</v>
       </c>
       <c r="H278" t="n">
         <v>2</v>
@@ -13260,22 +13260,22 @@
         <v>19657</v>
       </c>
       <c r="D279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1153</v>
+        <v>924.6666666666666</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J279" t="n">
         <v>8</v>
@@ -13306,22 +13306,22 @@
         <v>33048</v>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
         <v>1</v>
       </c>
       <c r="G280" t="n">
-        <v>14</v>
+        <v>125.5</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J280" t="n">
         <v>3</v>
@@ -13407,7 +13407,7 @@
         <v>2</v>
       </c>
       <c r="G282" t="n">
-        <v>412.5</v>
+        <v>529.75</v>
       </c>
       <c r="H282" t="n">
         <v>3</v>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="H283" t="n">
         <v>1</v>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1666</v>
+        <v>1881</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -13766,16 +13766,16 @@
         <v>24736</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G290" t="n">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="G292" t="n">
-        <v>856.5</v>
+        <v>1007</v>
       </c>
       <c r="H292" t="n">
         <v>1</v>
@@ -13904,16 +13904,16 @@
         <v>38567</v>
       </c>
       <c r="D293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F293" t="n">
         <v>1</v>
       </c>
       <c r="G293" t="n">
-        <v>476.6666666666667</v>
+        <v>652.5</v>
       </c>
       <c r="H293" t="n">
         <v>1</v>
@@ -13925,10 +13925,10 @@
         <v>2</v>
       </c>
       <c r="K293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M293" t="n">
         <v>2</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>520</v>
+        <v>817</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -13996,16 +13996,16 @@
         <v>8429</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -14017,10 +14017,10 @@
         <v>1</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M295" t="n">
         <v>1</v>
@@ -14042,16 +14042,16 @@
         <v>19608</v>
       </c>
       <c r="D296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
         <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -14063,10 +14063,10 @@
         <v>4</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M296" t="n">
         <v>1</v>
@@ -14088,16 +14088,16 @@
         <v>26642</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
-        <v>681</v>
+        <v>468.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -14143,7 +14143,7 @@
         <v>2</v>
       </c>
       <c r="G298" t="n">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -14180,16 +14180,16 @@
         <v>9805</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -14410,22 +14410,22 @@
         <v>16264</v>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" t="n">
-        <v>663</v>
+        <v>317.3333333333333</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -14456,22 +14456,22 @@
         <v>14587</v>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>491</v>
+        <v>359</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="n">
         <v>3</v>
@@ -14502,31 +14502,31 @@
         <v>31649</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J306" t="n">
         <v>6</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M306" t="n">
         <v>1</v>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>858</v>
+        <v>1000</v>
       </c>
       <c r="H307" t="n">
         <v>1</v>
@@ -14824,16 +14824,16 @@
         <v>27752</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -14845,10 +14845,10 @@
         <v>1</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M313" t="n">
         <v>1</v>
@@ -14870,16 +14870,16 @@
         <v>21433</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" t="n">
-        <v>957</v>
+        <v>638</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="G324" t="n">
-        <v>519.5</v>
+        <v>557.25</v>
       </c>
       <c r="H324" t="n">
         <v>1</v>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="H325" t="n">
         <v>1</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H330" t="n">
         <v>1</v>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="G332" t="n">
-        <v>194.6</v>
+        <v>232.6</v>
       </c>
       <c r="H332" t="n">
         <v>5</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="H336" t="n">
         <v>1</v>
@@ -15983,7 +15983,7 @@
         <v>2</v>
       </c>
       <c r="G338" t="n">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -16121,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>896</v>
+        <v>952</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>813</v>
+        <v>868</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -16204,16 +16204,16 @@
         <v>13695</v>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343" t="n">
-        <v>615</v>
+        <v>359.5</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>186.5</v>
+        <v>257.5</v>
       </c>
       <c r="H346" t="n">
         <v>2</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="G347" t="n">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="H348" t="n">
         <v>1</v>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="H349" t="n">
         <v>1</v>
@@ -16526,22 +16526,22 @@
         <v>9709</v>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="n">
         <v>2</v>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>523</v>
+        <v>618</v>
       </c>
       <c r="H353" t="n">
         <v>1</v>
@@ -16802,16 +16802,16 @@
         <v>11184</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E356" t="n">
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -16848,16 +16848,16 @@
         <v>10248</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -16894,16 +16894,16 @@
         <v>7102</v>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -16986,16 +16986,16 @@
         <v>19755</v>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -17032,16 +17032,16 @@
         <v>17657</v>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>2128</v>
+        <v>1194</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -17053,10 +17053,10 @@
         <v>1</v>
       </c>
       <c r="K361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M361" t="n">
         <v>2</v>
@@ -17087,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="G362" t="n">
-        <v>308.5</v>
+        <v>421</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -17170,22 +17170,22 @@
         <v>17802</v>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F364" t="n">
         <v>1</v>
       </c>
       <c r="G364" t="n">
-        <v>407</v>
+        <v>379.3333333333333</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364" t="n">
         <v>3</v>
@@ -17216,16 +17216,16 @@
         <v>8657</v>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="G367" t="n">
-        <v>608</v>
+        <v>802</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -17501,7 +17501,7 @@
         <v>2</v>
       </c>
       <c r="G371" t="n">
-        <v>180.6666666666667</v>
+        <v>260.3333333333333</v>
       </c>
       <c r="H371" t="n">
         <v>1</v>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>719.3333333333334</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H376" t="n">
         <v>1</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>812</v>
+        <v>1009</v>
       </c>
       <c r="H377" t="n">
         <v>1</v>
@@ -17869,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="G379" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -17906,16 +17906,16 @@
         <v>20336</v>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -17927,10 +17927,10 @@
         <v>2</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M380" t="n">
         <v>1</v>
@@ -17998,16 +17998,16 @@
         <v>22716</v>
       </c>
       <c r="D382" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E382" t="n">
         <v>2</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G382" t="n">
-        <v>215.6666666666667</v>
+        <v>253.75</v>
       </c>
       <c r="H382" t="n">
         <v>1</v>
@@ -18044,16 +18044,16 @@
         <v>25751</v>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E383" t="n">
         <v>1</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G383" t="n">
-        <v>135</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="H383" t="n">
         <v>1</v>
@@ -18182,22 +18182,22 @@
         <v>30315</v>
       </c>
       <c r="D386" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E386" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G386" t="n">
-        <v>253.4285714285714</v>
+        <v>360.25</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I386" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J386" t="n">
         <v>7</v>
@@ -18237,7 +18237,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>148</v>
+        <v>213.5</v>
       </c>
       <c r="H387" t="n">
         <v>2</v>
@@ -18274,16 +18274,16 @@
         <v>27530</v>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E388" t="n">
         <v>0</v>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -18329,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="G389" t="n">
-        <v>151.5</v>
+        <v>210.5</v>
       </c>
       <c r="H389" t="n">
         <v>1</v>
@@ -18412,16 +18412,16 @@
         <v>18586</v>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -18433,10 +18433,10 @@
         <v>3</v>
       </c>
       <c r="K391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M391" t="n">
         <v>2</v>
@@ -18504,22 +18504,22 @@
         <v>8305</v>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
       </c>
       <c r="G393" t="n">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J393" t="n">
         <v>4</v>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="H394" t="n">
         <v>2</v>
